--- a/tablas/calculos_motores_cambiados.xlsx
+++ b/tablas/calculos_motores_cambiados.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>kw/año</t>
+          <t>kw por año</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
@@ -760,7 +760,7 @@
         <v>57.95613764984328</v>
       </c>
       <c r="AG2" t="n">
-        <v>114176.3657142857</v>
+        <v>87157.5310796074</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>76.73295082952602</v>
       </c>
       <c r="AG3" t="n">
-        <v>134891.9088607595</v>
+        <v>115329.6623376623</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>86.2036669245568</v>
       </c>
       <c r="AG4" t="n">
-        <v>141041.3929411765</v>
+        <v>128908.8</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43.40579561645526</v>
       </c>
       <c r="AG5" t="n">
-        <v>73100.72195121952</v>
+        <v>65368.14830970556</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>143.3916181719634</v>
       </c>
       <c r="AG6" t="n">
-        <v>219569.934065934</v>
+        <v>213470.7692307692</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>95.78185213839643</v>
       </c>
       <c r="AG7" t="n">
-        <v>156712.6588235294</v>
+        <v>143232</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>238.7857626634604</v>
       </c>
       <c r="AG8" t="n">
-        <v>378425.4545454546</v>
+        <v>350541.4736842106</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
@@ -1746,9 +1746,7 @@
       <c r="AF9" t="n">
         <v>238.7857626634604</v>
       </c>
-      <c r="AG9" t="n">
-        <v>444019.2</v>
-      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
           <t>No</t>
@@ -1866,7 +1864,7 @@
         <v>57.95613764984328</v>
       </c>
       <c r="AG10" t="n">
-        <v>97467.62926829269</v>
+        <v>87157.5310796074</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
@@ -2007,7 +2005,7 @@
         <v>357.9786559192581</v>
       </c>
       <c r="AG11" t="n">
-        <v>542958.2608695652</v>
+        <v>523607.5471698113</v>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
@@ -2148,7 +2146,7 @@
         <v>57.95613764984328</v>
       </c>
       <c r="AG12" t="n">
-        <v>99904.31999999999</v>
+        <v>87157.5310796074</v>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
@@ -2289,7 +2287,7 @@
         <v>214.9071863971143</v>
       </c>
       <c r="AG13" t="n">
-        <v>340582.9090909091</v>
+        <v>315487.3263157895</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
@@ -2430,7 +2428,7 @@
         <v>57.95613764984328</v>
       </c>
       <c r="AG14" t="n">
-        <v>99904.31999999999</v>
+        <v>87157.5310796074</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
@@ -2570,9 +2568,7 @@
       <c r="AF15" t="n">
         <v>208.9375423305279</v>
       </c>
-      <c r="AG15" t="n">
-        <v>388516.8</v>
-      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr">
         <is>
           <t>No</t>
@@ -2690,7 +2686,7 @@
         <v>86.2036669245568</v>
       </c>
       <c r="AG16" t="n">
-        <v>136233.1636363636</v>
+        <v>128908.8</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
@@ -2831,7 +2827,7 @@
         <v>50.71162044361287</v>
       </c>
       <c r="AG17" t="n">
-        <v>82274.14588235294</v>
+        <v>76262.83969465648</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
@@ -2972,7 +2968,7 @@
         <v>43.40579561645526</v>
       </c>
       <c r="AG18" t="n">
-        <v>68899.53103448276</v>
+        <v>65368.14830970556</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
@@ -3113,7 +3109,7 @@
         <v>286.5429151961525</v>
       </c>
       <c r="AG19" t="n">
-        <v>444019.2</v>
+        <v>418886.037735849</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
@@ -3254,7 +3250,7 @@
         <v>57.95613764984328</v>
       </c>
       <c r="AG20" t="n">
-        <v>96293.32048192772</v>
+        <v>87157.5310796074</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
@@ -3394,9 +3390,7 @@
       <c r="AF21" t="n">
         <v>318.2032497060072</v>
       </c>
-      <c r="AG21" t="n">
-        <v>592025.6</v>
-      </c>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr">
         <is>
           <t>No</t>
@@ -3514,7 +3508,7 @@
         <v>191.5637042767929</v>
       </c>
       <c r="AG22" t="n">
-        <v>313425.3176470588</v>
+        <v>283115.3241232731</v>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
@@ -3654,9 +3648,7 @@
       <c r="AF23" t="n">
         <v>139.6818677018281</v>
       </c>
-      <c r="AG23" t="n">
-        <v>247989.4468085107</v>
-      </c>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr">
         <is>
           <t>No</t>
@@ -3774,7 +3766,7 @@
         <v>83.80912062109688</v>
       </c>
       <c r="AG24" t="n">
-        <v>133971.3103448276</v>
+        <v>125328</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
@@ -3915,7 +3907,7 @@
         <v>114.9382225660757</v>
       </c>
       <c r="AG25" t="n">
-        <v>183732.0827586207</v>
+        <v>170776.6153846154</v>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
@@ -4056,7 +4048,7 @@
         <v>50.71162044361287</v>
       </c>
       <c r="AG26" t="n">
-        <v>79469.34545454544</v>
+        <v>76262.83969465648</v>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
